--- a/trunk/doc/usuario/Municipios atendidos pelo UniNFSe.xlsx
+++ b/trunk/doc/usuario/Municipios atendidos pelo UniNFSe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="508">
   <si>
     <t>ID</t>
   </si>
@@ -59,508 +59,649 @@
     <t>3549904</t>
   </si>
   <si>
+    <t>4128104</t>
+  </si>
+  <si>
+    <t>3503208</t>
+  </si>
+  <si>
+    <t>3513009</t>
+  </si>
+  <si>
+    <t>3516200</t>
+  </si>
+  <si>
+    <t>3518800</t>
+  </si>
+  <si>
+    <t>3519071</t>
+  </si>
+  <si>
+    <t>3525904</t>
+  </si>
+  <si>
+    <t>3533908</t>
+  </si>
+  <si>
+    <t>3543402</t>
+  </si>
+  <si>
+    <t>3547809</t>
+  </si>
+  <si>
+    <t>3548906</t>
+  </si>
+  <si>
+    <t>3548708</t>
+  </si>
+  <si>
+    <t>3549805</t>
+  </si>
+  <si>
+    <t>3554003</t>
+  </si>
+  <si>
+    <t>3557105</t>
+  </si>
+  <si>
+    <t>3523909</t>
+  </si>
+  <si>
+    <t>3115300</t>
+  </si>
+  <si>
+    <t>3131307</t>
+  </si>
+  <si>
+    <t>3137601</t>
+  </si>
+  <si>
+    <t>3147105</t>
+  </si>
+  <si>
+    <t>2304400</t>
+  </si>
+  <si>
+    <t>2507507</t>
+  </si>
+  <si>
+    <t>2704302</t>
+  </si>
+  <si>
+    <t>3506359</t>
+  </si>
+  <si>
+    <t>2604106</t>
+  </si>
+  <si>
+    <t>3301009</t>
+  </si>
+  <si>
+    <t>3511300</t>
+  </si>
+  <si>
+    <t>3513801</t>
+  </si>
+  <si>
+    <t>4309308</t>
+  </si>
+  <si>
+    <t>3524709</t>
+  </si>
+  <si>
+    <t>2704708</t>
+  </si>
+  <si>
+    <t>3302700</t>
+  </si>
+  <si>
+    <t>3529401</t>
+  </si>
+  <si>
+    <t>3530508</t>
+  </si>
+  <si>
+    <t>4118204</t>
+  </si>
+  <si>
+    <t>1505536</t>
+  </si>
+  <si>
+    <t>4314407</t>
+  </si>
+  <si>
+    <t>3542602</t>
+  </si>
+  <si>
+    <t>3154606</t>
+  </si>
+  <si>
+    <t>3548500</t>
+  </si>
+  <si>
+    <t>3548807</t>
+  </si>
+  <si>
+    <t>3169901</t>
+  </si>
+  <si>
+    <t>4209300</t>
+  </si>
+  <si>
+    <t>4208302</t>
+  </si>
+  <si>
+    <t>4204608</t>
+  </si>
+  <si>
+    <t>4302105</t>
+  </si>
+  <si>
+    <t>4202404</t>
+  </si>
+  <si>
+    <t>4312401</t>
+  </si>
+  <si>
+    <t>4303103</t>
+  </si>
+  <si>
+    <t>4311403</t>
+  </si>
+  <si>
+    <t>4321204</t>
+  </si>
+  <si>
+    <t>4307708</t>
+  </si>
+  <si>
+    <t>4318705</t>
+  </si>
+  <si>
+    <t>4118402</t>
+  </si>
+  <si>
+    <t>4204251</t>
+  </si>
+  <si>
+    <t>2927408</t>
+  </si>
+  <si>
+    <t>4304606</t>
+  </si>
+  <si>
+    <t>5201108</t>
+  </si>
+  <si>
+    <t>4316907</t>
+  </si>
+  <si>
+    <t>5103403</t>
+  </si>
+  <si>
+    <t>4313409</t>
+  </si>
+  <si>
+    <t>3502804</t>
+  </si>
+  <si>
+    <t>3106200</t>
+  </si>
+  <si>
+    <t>3136702</t>
+  </si>
+  <si>
+    <t>4314050</t>
+  </si>
+  <si>
+    <t>4303905</t>
+  </si>
+  <si>
+    <t>4310207</t>
+  </si>
+  <si>
+    <t>4321709</t>
+  </si>
+  <si>
+    <t>4322400</t>
+  </si>
+  <si>
+    <t>4302808</t>
+  </si>
+  <si>
+    <t>4313375</t>
+  </si>
+  <si>
+    <t>2910800</t>
+  </si>
+  <si>
+    <t>3550308</t>
+  </si>
+  <si>
+    <t>1100205</t>
+  </si>
+  <si>
+    <t>3535804</t>
+  </si>
+  <si>
+    <t>3530300</t>
+  </si>
+  <si>
+    <t>3127701</t>
+  </si>
+  <si>
+    <t>3526100</t>
+  </si>
+  <si>
+    <t>3170206</t>
+  </si>
+  <si>
+    <t>3552205</t>
+  </si>
+  <si>
+    <t>3303500</t>
+  </si>
+  <si>
+    <t>3509502</t>
+  </si>
+  <si>
+    <t>4314803</t>
+  </si>
+  <si>
+    <t>4307005</t>
+  </si>
+  <si>
+    <t>4118501</t>
+  </si>
+  <si>
+    <t>3536505</t>
+  </si>
+  <si>
+    <t>4104303</t>
+  </si>
+  <si>
+    <t>4309209</t>
+  </si>
+  <si>
+    <t>3302403</t>
+  </si>
+  <si>
+    <t>3304557</t>
+  </si>
+  <si>
+    <t>5208707</t>
+  </si>
+  <si>
+    <t>3524402</t>
+  </si>
+  <si>
+    <t>4104808</t>
+  </si>
+  <si>
+    <t>3303302</t>
+  </si>
+  <si>
+    <t>5002704</t>
+  </si>
+  <si>
+    <t>3551702</t>
+  </si>
+  <si>
+    <t>3506003</t>
+  </si>
+  <si>
+    <t>2111300</t>
+  </si>
+  <si>
+    <t>4316808</t>
+  </si>
+  <si>
+    <t>2211001</t>
+  </si>
+  <si>
+    <t>1501402</t>
+  </si>
+  <si>
+    <t>3507506</t>
+  </si>
+  <si>
+    <t>4305108</t>
+  </si>
+  <si>
+    <t>4216602</t>
+  </si>
+  <si>
+    <t>3553807</t>
+  </si>
+  <si>
+    <t>4113700</t>
+  </si>
+  <si>
+    <t>3118601</t>
+  </si>
+  <si>
+    <t>4322004</t>
+  </si>
+  <si>
+    <t>4307609</t>
+  </si>
+  <si>
+    <t>3530607</t>
+  </si>
+  <si>
+    <t>4119905</t>
+  </si>
+  <si>
+    <t>4307906</t>
+  </si>
+  <si>
+    <t>3304201</t>
+  </si>
+  <si>
+    <t>3304904</t>
+  </si>
+  <si>
+    <t>3554805</t>
+  </si>
+  <si>
+    <t>3529005</t>
+  </si>
+  <si>
+    <t>3504008</t>
+  </si>
+  <si>
+    <t>3512902</t>
+  </si>
+  <si>
+    <t>3538709</t>
+  </si>
+  <si>
+    <t>4314902</t>
+  </si>
+  <si>
+    <t>3546603</t>
+  </si>
+  <si>
+    <t>4106902</t>
+  </si>
+  <si>
+    <t>5105259</t>
+  </si>
+  <si>
+    <t>3542404</t>
+  </si>
+  <si>
+    <t>2930709</t>
+  </si>
+  <si>
+    <t>3106705</t>
+  </si>
+  <si>
+    <t>3541406</t>
+  </si>
+  <si>
+    <t>3122306</t>
+  </si>
+  <si>
+    <t>4209003</t>
+  </si>
+  <si>
+    <t>4203907</t>
+  </si>
+  <si>
+    <t>4210035</t>
+  </si>
+  <si>
+    <t>4204806</t>
+  </si>
+  <si>
+    <t>4206702</t>
+  </si>
+  <si>
+    <t>4127700</t>
+  </si>
+  <si>
+    <t>4205902</t>
+  </si>
+  <si>
+    <t>3104205</t>
+  </si>
+  <si>
+    <t>4109708</t>
+  </si>
+  <si>
+    <t>5211503</t>
+  </si>
+  <si>
+    <t>4314100</t>
+  </si>
+  <si>
+    <t>4105508</t>
+  </si>
+  <si>
+    <t>3205200</t>
+  </si>
+  <si>
+    <t>3205309</t>
+  </si>
+  <si>
+    <t>4320008</t>
+  </si>
+  <si>
+    <t>3132404</t>
+  </si>
+  <si>
+    <t>4102307</t>
+  </si>
+  <si>
+    <t>4103453</t>
+  </si>
+  <si>
+    <t>4104428</t>
+  </si>
+  <si>
+    <t>4104501</t>
+  </si>
+  <si>
+    <t>4104600</t>
+  </si>
+  <si>
+    <t>4104659</t>
+  </si>
+  <si>
+    <t>4107207</t>
+  </si>
+  <si>
+    <t>4108403</t>
+  </si>
+  <si>
+    <t>4109609</t>
+  </si>
+  <si>
+    <t>4110102</t>
+  </si>
+  <si>
+    <t>4113304</t>
+  </si>
+  <si>
+    <t>4116059</t>
+  </si>
+  <si>
+    <t>4120358</t>
+  </si>
+  <si>
+    <t>4122008</t>
+  </si>
+  <si>
+    <t>4124400</t>
+  </si>
+  <si>
+    <t>4126306</t>
+  </si>
+  <si>
+    <t>4109807</t>
+  </si>
+  <si>
+    <t>4120606</t>
+  </si>
+  <si>
+    <t>3510500</t>
+  </si>
+  <si>
+    <t>5107909</t>
+  </si>
+  <si>
+    <t>3151800</t>
+  </si>
+  <si>
+    <t>3201308</t>
+  </si>
+  <si>
+    <t>3147006</t>
+  </si>
+  <si>
+    <t>4120804</t>
+  </si>
+  <si>
+    <t>3126109</t>
+  </si>
+  <si>
+    <t>3515004</t>
+  </si>
+  <si>
+    <t>3138203</t>
+  </si>
+  <si>
+    <t>3152808</t>
+  </si>
+  <si>
+    <t>3162955</t>
+  </si>
+  <si>
+    <t>3149309</t>
+  </si>
+  <si>
+    <t>3537305</t>
+  </si>
+  <si>
+    <t>4319505</t>
+  </si>
+  <si>
+    <t>3301900</t>
+  </si>
+  <si>
+    <t>2408102</t>
+  </si>
+  <si>
+    <t>2800308</t>
+  </si>
+  <si>
+    <t>4104204</t>
+  </si>
+  <si>
+    <t>2307650</t>
+  </si>
+  <si>
+    <t>4310801</t>
+  </si>
+  <si>
+    <t>3528502</t>
+  </si>
+  <si>
+    <t>3506102</t>
+  </si>
+  <si>
+    <t>3522208</t>
+  </si>
+  <si>
+    <t>3552809</t>
+  </si>
+  <si>
+    <t>3170701</t>
+  </si>
+  <si>
+    <t>3509007</t>
+  </si>
+  <si>
+    <t>3526902</t>
+  </si>
+  <si>
+    <t>3554102</t>
+  </si>
+  <si>
+    <t>3539806</t>
+  </si>
+  <si>
+    <t>1500800</t>
+  </si>
+  <si>
+    <t>4101408</t>
+  </si>
+  <si>
+    <t>4100400</t>
+  </si>
+  <si>
     <t>3525300</t>
   </si>
   <si>
-    <t>4128104</t>
-  </si>
-  <si>
-    <t>3503208</t>
-  </si>
-  <si>
-    <t>3513009</t>
-  </si>
-  <si>
-    <t>3516200</t>
-  </si>
-  <si>
-    <t>3518800</t>
-  </si>
-  <si>
-    <t>3519071</t>
-  </si>
-  <si>
-    <t>3525904</t>
-  </si>
-  <si>
-    <t>3533908</t>
-  </si>
-  <si>
-    <t>3543402</t>
-  </si>
-  <si>
-    <t>3547809</t>
-  </si>
-  <si>
-    <t>3548906</t>
-  </si>
-  <si>
-    <t>3548708</t>
-  </si>
-  <si>
-    <t>3549805</t>
-  </si>
-  <si>
-    <t>3554003</t>
-  </si>
-  <si>
-    <t>3557105</t>
-  </si>
-  <si>
-    <t>3523909</t>
-  </si>
-  <si>
-    <t>3115300</t>
-  </si>
-  <si>
-    <t>3131307</t>
-  </si>
-  <si>
-    <t>3137601</t>
-  </si>
-  <si>
-    <t>3147105</t>
-  </si>
-  <si>
-    <t>2304400</t>
-  </si>
-  <si>
-    <t>2507507</t>
-  </si>
-  <si>
-    <t>2704302</t>
-  </si>
-  <si>
-    <t>3170701</t>
-  </si>
-  <si>
-    <t>3506359</t>
-  </si>
-  <si>
-    <t>2604106</t>
-  </si>
-  <si>
-    <t>3301009</t>
-  </si>
-  <si>
-    <t>3511300</t>
-  </si>
-  <si>
-    <t>3513801</t>
-  </si>
-  <si>
-    <t>4309308</t>
-  </si>
-  <si>
-    <t>3524709</t>
-  </si>
-  <si>
-    <t>2704708</t>
-  </si>
-  <si>
-    <t>3302700</t>
-  </si>
-  <si>
-    <t>3529401</t>
-  </si>
-  <si>
-    <t>3530508</t>
-  </si>
-  <si>
-    <t>4118204</t>
-  </si>
-  <si>
-    <t>1505536</t>
-  </si>
-  <si>
-    <t>4314407</t>
-  </si>
-  <si>
-    <t>3542602</t>
-  </si>
-  <si>
-    <t>3154606</t>
-  </si>
-  <si>
-    <t>3548500</t>
-  </si>
-  <si>
-    <t>3548807</t>
-  </si>
-  <si>
-    <t>3169901</t>
-  </si>
-  <si>
-    <t>4209300</t>
-  </si>
-  <si>
-    <t>4208302</t>
-  </si>
-  <si>
-    <t>4204608</t>
-  </si>
-  <si>
-    <t>4302105</t>
-  </si>
-  <si>
-    <t>4100400</t>
-  </si>
-  <si>
-    <t>4202404</t>
-  </si>
-  <si>
-    <t>4312401</t>
-  </si>
-  <si>
-    <t>4303103</t>
-  </si>
-  <si>
-    <t>4311403</t>
-  </si>
-  <si>
-    <t>4321204</t>
-  </si>
-  <si>
-    <t>4307708</t>
-  </si>
-  <si>
-    <t>4318705</t>
-  </si>
-  <si>
-    <t>1500800</t>
-  </si>
-  <si>
-    <t>4118402</t>
-  </si>
-  <si>
-    <t>4204251</t>
-  </si>
-  <si>
-    <t>2927408</t>
-  </si>
-  <si>
-    <t>4304606</t>
-  </si>
-  <si>
-    <t>5201108</t>
-  </si>
-  <si>
-    <t>4316907</t>
-  </si>
-  <si>
-    <t>5103403</t>
-  </si>
-  <si>
-    <t>4313409</t>
-  </si>
-  <si>
-    <t>3502804</t>
-  </si>
-  <si>
-    <t>3537305</t>
-  </si>
-  <si>
-    <t>4101408</t>
-  </si>
-  <si>
-    <t>3106200</t>
-  </si>
-  <si>
-    <t>3136702</t>
-  </si>
-  <si>
-    <t>4314050</t>
-  </si>
-  <si>
-    <t>4303905</t>
-  </si>
-  <si>
-    <t>4310207</t>
-  </si>
-  <si>
-    <t>4321709</t>
-  </si>
-  <si>
-    <t>4322400</t>
-  </si>
-  <si>
-    <t>4302808</t>
-  </si>
-  <si>
-    <t>4313375</t>
-  </si>
-  <si>
-    <t>2910800</t>
-  </si>
-  <si>
-    <t>3550308</t>
-  </si>
-  <si>
-    <t>1100205</t>
-  </si>
-  <si>
-    <t>3535804</t>
-  </si>
-  <si>
-    <t>3530300</t>
-  </si>
-  <si>
-    <t>3127701</t>
-  </si>
-  <si>
-    <t>3526100</t>
-  </si>
-  <si>
-    <t>3170206</t>
-  </si>
-  <si>
-    <t>3552205</t>
-  </si>
-  <si>
-    <t>3303500</t>
-  </si>
-  <si>
-    <t>3509502</t>
-  </si>
-  <si>
-    <t>4314803</t>
-  </si>
-  <si>
-    <t>4307005</t>
-  </si>
-  <si>
-    <t>4118501</t>
-  </si>
-  <si>
-    <t>3536505</t>
-  </si>
-  <si>
-    <t>4104303</t>
-  </si>
-  <si>
-    <t>4309209</t>
-  </si>
-  <si>
-    <t>3302403</t>
-  </si>
-  <si>
-    <t>3304557</t>
-  </si>
-  <si>
-    <t>3524402</t>
-  </si>
-  <si>
-    <t>4104808</t>
-  </si>
-  <si>
-    <t>3303302</t>
-  </si>
-  <si>
-    <t>5002704</t>
-  </si>
-  <si>
-    <t>3551702</t>
-  </si>
-  <si>
-    <t>3506003</t>
-  </si>
-  <si>
-    <t>2111300</t>
-  </si>
-  <si>
-    <t>4316808</t>
-  </si>
-  <si>
-    <t>2211001</t>
-  </si>
-  <si>
-    <t>1501402</t>
-  </si>
-  <si>
-    <t>3507506</t>
-  </si>
-  <si>
-    <t>4305108</t>
-  </si>
-  <si>
-    <t>4216602</t>
-  </si>
-  <si>
-    <t>3553807</t>
-  </si>
-  <si>
-    <t>4113700</t>
-  </si>
-  <si>
-    <t>3118601</t>
-  </si>
-  <si>
-    <t>4322004</t>
-  </si>
-  <si>
-    <t>4307609</t>
-  </si>
-  <si>
-    <t>3530607</t>
-  </si>
-  <si>
-    <t>4119905</t>
-  </si>
-  <si>
-    <t>4307906</t>
-  </si>
-  <si>
-    <t>3304201</t>
-  </si>
-  <si>
-    <t>3304904</t>
-  </si>
-  <si>
-    <t>3554805</t>
-  </si>
-  <si>
-    <t>3528502</t>
-  </si>
-  <si>
-    <t>3529005</t>
-  </si>
-  <si>
-    <t>3504008</t>
-  </si>
-  <si>
-    <t>3512902</t>
-  </si>
-  <si>
-    <t>3538709</t>
-  </si>
-  <si>
-    <t>4314902</t>
-  </si>
-  <si>
-    <t>3546603</t>
-  </si>
-  <si>
-    <t>4106902</t>
-  </si>
-  <si>
-    <t>5105259</t>
-  </si>
-  <si>
-    <t>3542404</t>
-  </si>
-  <si>
-    <t>2930709</t>
-  </si>
-  <si>
-    <t>3106705</t>
-  </si>
-  <si>
-    <t>3541406</t>
-  </si>
-  <si>
-    <t>3122306</t>
-  </si>
-  <si>
-    <t>4209003</t>
-  </si>
-  <si>
-    <t>4203907</t>
-  </si>
-  <si>
-    <t>4210035</t>
-  </si>
-  <si>
-    <t>4204806</t>
-  </si>
-  <si>
-    <t>4206702</t>
-  </si>
-  <si>
-    <t>4127700</t>
-  </si>
-  <si>
-    <t>4205902</t>
-  </si>
-  <si>
-    <t>3104205</t>
-  </si>
-  <si>
-    <t>4109708</t>
-  </si>
-  <si>
-    <t>5211503</t>
-  </si>
-  <si>
-    <t>4314100</t>
-  </si>
-  <si>
-    <t>4105508</t>
-  </si>
-  <si>
-    <t>3205200</t>
-  </si>
-  <si>
-    <t>3205309</t>
-  </si>
-  <si>
-    <t>4320008</t>
-  </si>
-  <si>
-    <t>3132404</t>
-  </si>
-  <si>
-    <t>4102307</t>
-  </si>
-  <si>
-    <t>4103453</t>
-  </si>
-  <si>
-    <t>4104428</t>
-  </si>
-  <si>
-    <t>4104501</t>
-  </si>
-  <si>
-    <t>4104600</t>
-  </si>
-  <si>
-    <t>4104659</t>
-  </si>
-  <si>
-    <t>4107207</t>
-  </si>
-  <si>
-    <t>4108403</t>
-  </si>
-  <si>
-    <t>4109609</t>
-  </si>
-  <si>
-    <t>4110102</t>
-  </si>
-  <si>
-    <t>4113304</t>
-  </si>
-  <si>
-    <t>4116059</t>
-  </si>
-  <si>
-    <t>4120358</t>
-  </si>
-  <si>
-    <t>4122008</t>
-  </si>
-  <si>
-    <t>4124400</t>
-  </si>
-  <si>
-    <t>4126306</t>
-  </si>
-  <si>
-    <t>4109807</t>
-  </si>
-  <si>
-    <t>4120606</t>
+    <t>2611606</t>
+  </si>
+  <si>
+    <t>3130101</t>
+  </si>
+  <si>
+    <t>3148004</t>
+  </si>
+  <si>
+    <t>3301702</t>
+  </si>
+  <si>
+    <t>3506508</t>
+  </si>
+  <si>
+    <t>3201506</t>
+  </si>
+  <si>
+    <t>4315602</t>
+  </si>
+  <si>
+    <t>4314423</t>
+  </si>
+  <si>
+    <t>2904605</t>
+  </si>
+  <si>
+    <t>4207007</t>
+  </si>
+  <si>
+    <t>4217600</t>
+  </si>
+  <si>
+    <t>4219002</t>
+  </si>
+  <si>
+    <t>4211207</t>
+  </si>
+  <si>
+    <t>4211603</t>
+  </si>
+  <si>
+    <t>4308607</t>
+  </si>
+  <si>
+    <t>3505500</t>
+  </si>
+  <si>
+    <t>3116605</t>
+  </si>
+  <si>
+    <t>3130309</t>
+  </si>
+  <si>
+    <t>2900702</t>
+  </si>
+  <si>
+    <t>3152105</t>
   </si>
   <si>
     <t>São José dos Pinhais - PR</t>
@@ -575,508 +716,649 @@
     <t>São José dos Campos - SP</t>
   </si>
   <si>
+    <t>Umuarama - PR</t>
+  </si>
+  <si>
+    <t>Araraquara - SP</t>
+  </si>
+  <si>
+    <t>Cotia - SP</t>
+  </si>
+  <si>
+    <t>Franca - SP</t>
+  </si>
+  <si>
+    <t>Guarulhos - SP</t>
+  </si>
+  <si>
+    <t>Hortolândia - SP</t>
+  </si>
+  <si>
+    <t>Jundiaí - SP</t>
+  </si>
+  <si>
+    <t>Olímpia - SP</t>
+  </si>
+  <si>
+    <t>Ribeirão Preto - SP</t>
+  </si>
+  <si>
+    <t>Santo André - SP</t>
+  </si>
+  <si>
+    <t>São Carlos - SP</t>
+  </si>
+  <si>
+    <t>São Bernardo do Campo - SP</t>
+  </si>
+  <si>
+    <t>São José do Rio Preto - SP</t>
+  </si>
+  <si>
+    <t>Tatuí - SP</t>
+  </si>
+  <si>
+    <t>Votuporanga - SP</t>
+  </si>
+  <si>
+    <t>Itu - SP</t>
+  </si>
+  <si>
+    <t>Cataguases - MG</t>
+  </si>
+  <si>
+    <t>Ipatinga - MG</t>
+  </si>
+  <si>
+    <t>Lagoa Santa - MG</t>
+  </si>
+  <si>
+    <t>Pará de Minas - MG</t>
+  </si>
+  <si>
+    <t>Fortaleza - CE</t>
+  </si>
+  <si>
+    <t>João Pessoa - PB</t>
+  </si>
+  <si>
+    <t>Maceió - AL</t>
+  </si>
+  <si>
+    <t>Bertioga - SP</t>
+  </si>
+  <si>
+    <t>Caruaru - PE</t>
+  </si>
+  <si>
+    <t>Campos dos Goytacazes - RJ</t>
+  </si>
+  <si>
+    <t>Cedral - SP</t>
+  </si>
+  <si>
+    <t>Diadema - SP</t>
+  </si>
+  <si>
+    <t>Guaíba - RS</t>
+  </si>
+  <si>
+    <t>Jaguariúna - SP</t>
+  </si>
+  <si>
+    <t>Marechal Deodoro - AL</t>
+  </si>
+  <si>
+    <t>Maricá - RJ</t>
+  </si>
+  <si>
+    <t>Mauá - SP</t>
+  </si>
+  <si>
+    <t>Mococa - SP</t>
+  </si>
+  <si>
+    <t>Paranaguá - PR</t>
+  </si>
+  <si>
+    <t>Parauapebas - PA</t>
+  </si>
+  <si>
+    <t>Pelotas - RS</t>
+  </si>
+  <si>
+    <t>Registro - SP</t>
+  </si>
+  <si>
+    <t>Ribeirão das Neves - MG</t>
+  </si>
+  <si>
+    <t>Santos - SP</t>
+  </si>
+  <si>
+    <t>São Caetano do Sul - SP</t>
+  </si>
+  <si>
+    <t>Ubá - MG</t>
+  </si>
+  <si>
+    <t>Lages - SC</t>
+  </si>
+  <si>
+    <t>Itapema - SC</t>
+  </si>
+  <si>
+    <t>Criciúma - SC</t>
+  </si>
+  <si>
+    <t>Bento Gonçalves - RS</t>
+  </si>
+  <si>
+    <t>Blumenau - SC</t>
+  </si>
+  <si>
+    <t>Montenegro - RS</t>
+  </si>
+  <si>
+    <t>Cachoeirinha - RS</t>
+  </si>
+  <si>
+    <t>Lajeado - RS</t>
+  </si>
+  <si>
+    <t>Taquara - RS</t>
+  </si>
+  <si>
+    <t>Esteio - RS</t>
+  </si>
+  <si>
+    <t>São Leopoldo - RS</t>
+  </si>
+  <si>
+    <t>Paranavaí - PR</t>
+  </si>
+  <si>
+    <t>Cocal do Sul - SC</t>
+  </si>
+  <si>
+    <t>Salvador - BA</t>
+  </si>
+  <si>
+    <t>Canoas - RS</t>
+  </si>
+  <si>
+    <t>Anapolis - GO</t>
+  </si>
+  <si>
+    <t>Santa Maria - RS</t>
+  </si>
+  <si>
+    <t>Cuiabá - MT</t>
+  </si>
+  <si>
+    <t>Novo Hamburgo - RS</t>
+  </si>
+  <si>
+    <t>Aracatuba - SP</t>
+  </si>
+  <si>
+    <t>Belo Horizonte - MG</t>
+  </si>
+  <si>
+    <t>Juiz de Fora - MG</t>
+  </si>
+  <si>
+    <t>Parobé - RS</t>
+  </si>
+  <si>
+    <t>Campo Bom - RS</t>
+  </si>
+  <si>
+    <t>Ijui - RS</t>
+  </si>
+  <si>
+    <t>Tres Coroas - RS</t>
+  </si>
+  <si>
+    <t>Uruguaiana - RS</t>
+  </si>
+  <si>
+    <t>Caçapava do Sul - RS</t>
+  </si>
+  <si>
+    <t>Nova Santa Rita - RS</t>
+  </si>
+  <si>
+    <t>Feira de Santana - BA</t>
+  </si>
+  <si>
+    <t>São Paulo - SP</t>
+  </si>
+  <si>
+    <t>Porto Velho - RO</t>
+  </si>
+  <si>
+    <t>Paranapanema - SP</t>
+  </si>
+  <si>
+    <t>Mirassol - SP</t>
+  </si>
+  <si>
+    <t>Governador Valadares - MG</t>
+  </si>
+  <si>
+    <t>Juquiá - SP</t>
+  </si>
+  <si>
+    <t>Uberlândia - MG</t>
+  </si>
+  <si>
+    <t>Sorocaba - SP</t>
+  </si>
+  <si>
+    <t>Nova Iguaçu - RJ</t>
+  </si>
+  <si>
+    <t>Campinas - SP</t>
+  </si>
+  <si>
+    <t>Portão - RS</t>
+  </si>
+  <si>
+    <t>Erechim - RS</t>
+  </si>
+  <si>
+    <t>Pato Branco - PR</t>
+  </si>
+  <si>
+    <t>Paulínia - SP</t>
+  </si>
+  <si>
+    <t>Campo Mourão - PR</t>
+  </si>
+  <si>
+    <t>Gravataí - RS</t>
+  </si>
+  <si>
+    <t>Macaé - RJ</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro - RJ</t>
+  </si>
+  <si>
+    <t>Goiania - GO</t>
+  </si>
+  <si>
+    <t>Jacareí - SP</t>
+  </si>
+  <si>
+    <t>Cascavel - PR</t>
+  </si>
+  <si>
+    <t>Niterói - RJ</t>
+  </si>
+  <si>
+    <t>Campo Grande - MS</t>
+  </si>
+  <si>
+    <t>Sertãozinho - SP</t>
+  </si>
+  <si>
+    <t>Bauru - SP</t>
+  </si>
+  <si>
+    <t>São Luis - MA</t>
+  </si>
+  <si>
+    <t>Santa Cruz do Sul - RS</t>
+  </si>
+  <si>
+    <t>Teresina - PI</t>
+  </si>
+  <si>
+    <t>Belém - PA</t>
+  </si>
+  <si>
+    <t>Botucatu - SP</t>
+  </si>
+  <si>
+    <t>Caxias do Sul - RS</t>
+  </si>
+  <si>
+    <t>São José - SC</t>
+  </si>
+  <si>
+    <t>Taquarituba - SP</t>
+  </si>
+  <si>
+    <t>Londrina - PR</t>
+  </si>
+  <si>
+    <t>Contagem - MG</t>
+  </si>
+  <si>
+    <t>Triunfo - RS</t>
+  </si>
+  <si>
+    <t>Estância Velha - RS</t>
+  </si>
+  <si>
+    <t>Mogi das Cruzes - SP</t>
+  </si>
+  <si>
+    <t>Ponta Grossa - PR</t>
+  </si>
+  <si>
+    <t>Farroupilha - RS</t>
+  </si>
+  <si>
+    <t>Resende - RJ</t>
+  </si>
+  <si>
+    <t>São Gonçalo - RJ</t>
+  </si>
+  <si>
+    <t>Tremembé - SP</t>
+  </si>
+  <si>
+    <t>Marília - SP</t>
+  </si>
+  <si>
+    <t>Assis - SP</t>
+  </si>
+  <si>
+    <t>Cosmorama - SP</t>
+  </si>
+  <si>
+    <t>Piracicaba - SP</t>
+  </si>
+  <si>
+    <t>Porto Alegre - RS</t>
+  </si>
+  <si>
+    <t>Santa Fé do Sul - SP</t>
+  </si>
+  <si>
+    <t>Curitiba - PR</t>
+  </si>
+  <si>
+    <t>Lucas do Rio Verde - MT</t>
+  </si>
+  <si>
+    <t>Regente Feijó - SP</t>
+  </si>
+  <si>
+    <t>Simões Filho - BA</t>
+  </si>
+  <si>
+    <t>Betim - MG</t>
+  </si>
+  <si>
+    <t>Presidente Prudente - SP</t>
+  </si>
+  <si>
+    <t>Divinópolis - MG</t>
+  </si>
+  <si>
+    <t>Joaçaba - SC</t>
+  </si>
+  <si>
+    <t>Capinzal - SC</t>
+  </si>
+  <si>
+    <t>Luzerna - SC</t>
+  </si>
+  <si>
+    <t>Curitibanos - SC</t>
+  </si>
+  <si>
+    <t>Herval D'Oeste - SC</t>
+  </si>
+  <si>
+    <t>Toledo - PR</t>
+  </si>
+  <si>
+    <t>Gaspar - SC</t>
+  </si>
+  <si>
+    <t>Arcos - MG</t>
+  </si>
+  <si>
+    <t>Ibaiti - PR</t>
+  </si>
+  <si>
+    <t>Itumbiara - GO</t>
+  </si>
+  <si>
+    <t>Passo Fundo - RS</t>
+  </si>
+  <si>
+    <t>Cianorte - PR</t>
+  </si>
+  <si>
+    <t>Vila Velha - ES</t>
+  </si>
+  <si>
+    <t>Vitória - ES</t>
+  </si>
+  <si>
+    <t>Sapucaia do Sul - RS</t>
+  </si>
+  <si>
+    <t>Itajubá - MG</t>
+  </si>
+  <si>
+    <t>Balsa Nova - PR</t>
+  </si>
+  <si>
+    <t>Cafelândia - PR</t>
+  </si>
+  <si>
+    <t>Candói - PR</t>
+  </si>
+  <si>
+    <t>Capanema - PR</t>
+  </si>
+  <si>
+    <t>Capitão Leônidas Marques - PR</t>
+  </si>
+  <si>
+    <t>Carâmbei - PR</t>
+  </si>
+  <si>
+    <t>Dois Vizinhos - PR</t>
+  </si>
+  <si>
+    <t>Francisco Beltrão - PR</t>
+  </si>
+  <si>
+    <t>Guaratuba - PR</t>
+  </si>
+  <si>
+    <t>Imbituva - PR</t>
+  </si>
+  <si>
+    <t>Laranjeiras do Sul - PR</t>
+  </si>
+  <si>
+    <t>Missal - PR</t>
+  </si>
+  <si>
+    <t>Pranchita - PR</t>
+  </si>
+  <si>
+    <t>Rio Azul - PR</t>
+  </si>
+  <si>
+    <t>Santo Antonio do Sudoeste - PR</t>
+  </si>
+  <si>
+    <t>Sengés - PR</t>
+  </si>
+  <si>
+    <t>Ibiporã - PR</t>
+  </si>
+  <si>
+    <t>Prudentópolis - PR</t>
+  </si>
+  <si>
+    <t>Caraguatatuba - SP</t>
+  </si>
+  <si>
+    <t>Sinop - MT</t>
+  </si>
+  <si>
+    <t>Poços de Caldas - MG</t>
+  </si>
+  <si>
+    <t>Cariacica - ES</t>
+  </si>
+  <si>
+    <t>Paracatu - MG</t>
+  </si>
+  <si>
+    <t>Quatro Barras - PR</t>
+  </si>
+  <si>
+    <t>Formiga - MG</t>
+  </si>
+  <si>
+    <t>Embu das Artes - SP</t>
+  </si>
+  <si>
+    <t>Lavras - MG</t>
+  </si>
+  <si>
+    <t>Prata - MG</t>
+  </si>
+  <si>
+    <t>São José da Lapa - MG</t>
+  </si>
+  <si>
+    <t>Pedro Leopoldo - MG</t>
+  </si>
+  <si>
+    <t>Penápolis - SP</t>
+  </si>
+  <si>
+    <t>São Sebastião do Caí - RS</t>
+  </si>
+  <si>
+    <t>Itaboraí - RJ</t>
+  </si>
+  <si>
+    <t>Natal - RN</t>
+  </si>
+  <si>
+    <t>Aracaju - SE</t>
+  </si>
+  <si>
+    <t>Campo Largo - PR</t>
+  </si>
+  <si>
+    <t>Maracanaú - CE</t>
+  </si>
+  <si>
+    <t>Ivoti - RS</t>
+  </si>
+  <si>
+    <t>Mairipora - SP</t>
+  </si>
+  <si>
+    <t>Bebedouro - SP</t>
+  </si>
+  <si>
+    <t>Itapecerica da Serra - SP</t>
+  </si>
+  <si>
+    <t>Taboão da Serra - SP</t>
+  </si>
+  <si>
+    <t>Varginha - MG</t>
+  </si>
+  <si>
+    <t>Caieiras - SP</t>
+  </si>
+  <si>
+    <t>Limeira - SP</t>
+  </si>
+  <si>
+    <t>Taubaté - SP</t>
+  </si>
+  <si>
+    <t>Poá - SP</t>
+  </si>
+  <si>
+    <t>Ananindeua - PA</t>
+  </si>
+  <si>
+    <t>Apucarana - PR</t>
+  </si>
+  <si>
+    <t>Almirante Tamandaré - PR</t>
+  </si>
+  <si>
     <t>Jaú - SP</t>
   </si>
   <si>
-    <t>Umuarama - PR</t>
-  </si>
-  <si>
-    <t>Araraquara - SP</t>
-  </si>
-  <si>
-    <t>Cotia - SP</t>
-  </si>
-  <si>
-    <t>Franca - SP</t>
-  </si>
-  <si>
-    <t>Guarulhos - SP</t>
-  </si>
-  <si>
-    <t>Hortolândia - SP</t>
-  </si>
-  <si>
-    <t>Jundiaí - SP</t>
-  </si>
-  <si>
-    <t>Olímpia - SP</t>
-  </si>
-  <si>
-    <t>Ribeirão Preto - SP</t>
-  </si>
-  <si>
-    <t>Santo André - SP</t>
-  </si>
-  <si>
-    <t>São Carlos - SP</t>
-  </si>
-  <si>
-    <t>São Bernardo do Campo - SP</t>
-  </si>
-  <si>
-    <t>São José do Rio Preto - SP</t>
-  </si>
-  <si>
-    <t>Tatuí - SP</t>
-  </si>
-  <si>
-    <t>Votuporanga - SP</t>
-  </si>
-  <si>
-    <t>Itu - SP</t>
-  </si>
-  <si>
-    <t>Cataguases - MG</t>
-  </si>
-  <si>
-    <t>Ipatinga - MG</t>
-  </si>
-  <si>
-    <t>Lagoa Santa - MG</t>
-  </si>
-  <si>
-    <t>Pará de Minas - MG</t>
-  </si>
-  <si>
-    <t>Fortaleza - CE</t>
-  </si>
-  <si>
-    <t>João Pessoa - PB</t>
-  </si>
-  <si>
-    <t>Maceió - AL</t>
-  </si>
-  <si>
-    <t>Varginha - MG</t>
-  </si>
-  <si>
-    <t>Bertioga - SP</t>
-  </si>
-  <si>
-    <t>Caruaru - PE</t>
-  </si>
-  <si>
-    <t>Campos dos Goytacazes - RJ</t>
-  </si>
-  <si>
-    <t>Cedral - SP</t>
-  </si>
-  <si>
-    <t>Diadema - SP</t>
-  </si>
-  <si>
-    <t>Guaíba - RS</t>
-  </si>
-  <si>
-    <t>Jaguariúna - SP</t>
-  </si>
-  <si>
-    <t>Marechal Deodoro - AL</t>
-  </si>
-  <si>
-    <t>Maricá - RJ</t>
-  </si>
-  <si>
-    <t>Mauá - SP</t>
-  </si>
-  <si>
-    <t>Mococa - SP</t>
-  </si>
-  <si>
-    <t>Paranaguá - PR</t>
-  </si>
-  <si>
-    <t>Parauapebas - PA</t>
-  </si>
-  <si>
-    <t>Pelotas - RS</t>
-  </si>
-  <si>
-    <t>Registro - SP</t>
-  </si>
-  <si>
-    <t>Ribeirão das Neves - MG</t>
-  </si>
-  <si>
-    <t>Santos - SP</t>
-  </si>
-  <si>
-    <t>São Caetano do Sul - SP</t>
-  </si>
-  <si>
-    <t>Ubá - MG</t>
-  </si>
-  <si>
-    <t>Lages - SC</t>
-  </si>
-  <si>
-    <t>Itapema - SC</t>
-  </si>
-  <si>
-    <t>Criciúma - SC</t>
-  </si>
-  <si>
-    <t>Bento Gonçalves - RS</t>
-  </si>
-  <si>
-    <t>Almirante Tamandaré - PR</t>
-  </si>
-  <si>
-    <t>Blumenau - SC</t>
-  </si>
-  <si>
-    <t>Montenegro - RS</t>
-  </si>
-  <si>
-    <t>Cachoeirinha - RS</t>
-  </si>
-  <si>
-    <t>Lajeado - RS</t>
-  </si>
-  <si>
-    <t>Taquara - RS</t>
-  </si>
-  <si>
-    <t>Esteio - RS</t>
-  </si>
-  <si>
-    <t>São Leopoldo - RS</t>
-  </si>
-  <si>
-    <t>Ananindeua - PA</t>
-  </si>
-  <si>
-    <t>Paranavaí - PR</t>
-  </si>
-  <si>
-    <t>Cocal do Sul - SC</t>
-  </si>
-  <si>
-    <t>Salvador - BA</t>
-  </si>
-  <si>
-    <t>Canoas - RS</t>
-  </si>
-  <si>
-    <t>Anapolis - GO</t>
-  </si>
-  <si>
-    <t>Santa Maria - RS</t>
-  </si>
-  <si>
-    <t>Cuiabá - MT</t>
-  </si>
-  <si>
-    <t>Novo Hamburgo - RS</t>
-  </si>
-  <si>
-    <t>Aracatuba - SP</t>
-  </si>
-  <si>
-    <t>Penapois - SP</t>
-  </si>
-  <si>
-    <t>Apucarana - PR</t>
-  </si>
-  <si>
-    <t>Belo Horizonte - MG</t>
-  </si>
-  <si>
-    <t>Juiz de Fora - MG</t>
-  </si>
-  <si>
-    <t>Parobé - RS</t>
-  </si>
-  <si>
-    <t>Campo Bom - RS</t>
-  </si>
-  <si>
-    <t>Ijui - RS</t>
-  </si>
-  <si>
-    <t>Tres Coroas - RS</t>
-  </si>
-  <si>
-    <t>Uruguaiana - RS</t>
-  </si>
-  <si>
-    <t>Caçapava do Sul - RS</t>
-  </si>
-  <si>
-    <t>Nova Santa Rita - RS</t>
-  </si>
-  <si>
-    <t>Feira de Santana - BA</t>
-  </si>
-  <si>
-    <t>São Paulo - SP</t>
-  </si>
-  <si>
-    <t>Porto Velho - RO</t>
-  </si>
-  <si>
-    <t>Paranapanema - SP</t>
-  </si>
-  <si>
-    <t>Mirassol - SP</t>
-  </si>
-  <si>
-    <t>Governador Valadares - MG</t>
-  </si>
-  <si>
-    <t>Juquiá - SP</t>
-  </si>
-  <si>
-    <t>Uberlândia - MG</t>
-  </si>
-  <si>
-    <t>Sorocaba - SP</t>
-  </si>
-  <si>
-    <t>Nova Iguaçu - RJ</t>
-  </si>
-  <si>
-    <t>Campinas - SP</t>
-  </si>
-  <si>
-    <t>Portão - RS</t>
-  </si>
-  <si>
-    <t>Erechim - RS</t>
-  </si>
-  <si>
-    <t>Pato Branco - PR</t>
-  </si>
-  <si>
-    <t>Paulínia - SP</t>
-  </si>
-  <si>
-    <t>Campo Mourão - PR</t>
-  </si>
-  <si>
-    <t>Gravataí - RS</t>
-  </si>
-  <si>
-    <t>Macaé - RJ</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro - RJ</t>
-  </si>
-  <si>
-    <t>Jacareí - SP</t>
-  </si>
-  <si>
-    <t>Cascavel - PR</t>
-  </si>
-  <si>
-    <t>Niterói - RJ</t>
-  </si>
-  <si>
-    <t>Campo Grande - MS</t>
-  </si>
-  <si>
-    <t>Sertãozinho - SP</t>
-  </si>
-  <si>
-    <t>Bauru - SP</t>
-  </si>
-  <si>
-    <t>São Luis - MA</t>
-  </si>
-  <si>
-    <t>Santa Cruz do Sul - RS</t>
-  </si>
-  <si>
-    <t>Teresina - PI</t>
-  </si>
-  <si>
-    <t>Belém - PA</t>
-  </si>
-  <si>
-    <t>Botucatu - SP</t>
-  </si>
-  <si>
-    <t>Caxias do Sul - RS</t>
-  </si>
-  <si>
-    <t>São José - SC</t>
-  </si>
-  <si>
-    <t>Taquarituba - SP</t>
-  </si>
-  <si>
-    <t>Londrina - PR</t>
-  </si>
-  <si>
-    <t>Contagem - MG</t>
-  </si>
-  <si>
-    <t>Triunfo - RS</t>
-  </si>
-  <si>
-    <t>Estância Velha - RS</t>
-  </si>
-  <si>
-    <t>Mogi das Cruzes - SP</t>
-  </si>
-  <si>
-    <t>Ponta Grossa - PR</t>
-  </si>
-  <si>
-    <t>Farroupilha - RS</t>
-  </si>
-  <si>
-    <t>Resende - RJ</t>
-  </si>
-  <si>
-    <t>São Gonçalo - RJ</t>
-  </si>
-  <si>
-    <t>Tremembé - SP</t>
-  </si>
-  <si>
-    <t>Mairipora - SP</t>
-  </si>
-  <si>
-    <t>Marília - SP</t>
-  </si>
-  <si>
-    <t>Assis - SP</t>
-  </si>
-  <si>
-    <t>Cosmorama - SP</t>
-  </si>
-  <si>
-    <t>Piracicaba - SP</t>
-  </si>
-  <si>
-    <t>Porto Alegre - RS</t>
-  </si>
-  <si>
-    <t>Santa Fé do Sul - SP</t>
-  </si>
-  <si>
-    <t>Curitiba - PR</t>
-  </si>
-  <si>
-    <t>Lucas do Rio Verde - MT</t>
-  </si>
-  <si>
-    <t>Regente Feijó - SP</t>
-  </si>
-  <si>
-    <t>Simões Filho - BA</t>
-  </si>
-  <si>
-    <t>Betim - MG</t>
-  </si>
-  <si>
-    <t>Presidente Prudente - SP</t>
-  </si>
-  <si>
-    <t>Divinópolis - MG</t>
-  </si>
-  <si>
-    <t>Joaçaba - SC</t>
-  </si>
-  <si>
-    <t>Capinzal - SC</t>
-  </si>
-  <si>
-    <t>Luzerna - SC</t>
-  </si>
-  <si>
-    <t>Curitibanos - SC</t>
-  </si>
-  <si>
-    <t>Herval D'Oeste - SC</t>
-  </si>
-  <si>
-    <t>Toledo - PR</t>
-  </si>
-  <si>
-    <t>Gaspar - SC</t>
-  </si>
-  <si>
-    <t>Arcos - MG</t>
-  </si>
-  <si>
-    <t>Ibaiti - PR</t>
-  </si>
-  <si>
-    <t>Itumbiara - GO</t>
-  </si>
-  <si>
-    <t>Passo Fundo - RS</t>
-  </si>
-  <si>
-    <t>Cianorte - PR</t>
-  </si>
-  <si>
-    <t>Vila Velha - ES</t>
-  </si>
-  <si>
-    <t>Vitória - ES</t>
-  </si>
-  <si>
-    <t>Sapucaia do Sul - RS</t>
-  </si>
-  <si>
-    <t>Itajubá - MG</t>
-  </si>
-  <si>
-    <t>Balsa Nova - PR</t>
-  </si>
-  <si>
-    <t>Cafelândia - PR</t>
-  </si>
-  <si>
-    <t>Candói - PR</t>
-  </si>
-  <si>
-    <t>Capanema - PR</t>
-  </si>
-  <si>
-    <t>Capitão Leônidas Marques - PR</t>
-  </si>
-  <si>
-    <t>Carâmbei - PR</t>
-  </si>
-  <si>
-    <t>Dois Vizinhos - PR</t>
-  </si>
-  <si>
-    <t>Francisco Beltrão - PR</t>
-  </si>
-  <si>
-    <t>Guaratuba - PR</t>
-  </si>
-  <si>
-    <t>Imbituva - PR</t>
-  </si>
-  <si>
-    <t>Laranjeiras do Sul - PR</t>
-  </si>
-  <si>
-    <t>Missal - PR</t>
-  </si>
-  <si>
-    <t>Pranchita - PR</t>
-  </si>
-  <si>
-    <t>Rio Azul - PR</t>
-  </si>
-  <si>
-    <t>Santo Antonio do Sudoeste - PR</t>
-  </si>
-  <si>
-    <t>Sengés - PR</t>
-  </si>
-  <si>
-    <t>Ibiporã - PR</t>
-  </si>
-  <si>
-    <t>Prudentópolis - PR</t>
+    <t>Recife - PE</t>
+  </si>
+  <si>
+    <t>Igarapé - MG</t>
+  </si>
+  <si>
+    <t>Patos de Minas - MG</t>
+  </si>
+  <si>
+    <t>Duque de Caxias - RJ</t>
+  </si>
+  <si>
+    <t>Birigui - SP</t>
+  </si>
+  <si>
+    <t>Colatina - ES</t>
+  </si>
+  <si>
+    <t>Rio Grande - RS</t>
+  </si>
+  <si>
+    <t>Picada Café - RS</t>
+  </si>
+  <si>
+    <t>Brumado - BA</t>
+  </si>
+  <si>
+    <t>Içara - SC</t>
+  </si>
+  <si>
+    <t>Siderópolis - SC</t>
+  </si>
+  <si>
+    <t>Urussanga - SC</t>
+  </si>
+  <si>
+    <t>Morro da Fumaça - SC</t>
+  </si>
+  <si>
+    <t>Nova Veneza - SC</t>
+  </si>
+  <si>
+    <t>Garibaldi - RS</t>
+  </si>
+  <si>
+    <t>Barretos - SP</t>
+  </si>
+  <si>
+    <t>Cláudio - MG</t>
+  </si>
+  <si>
+    <t>Iguatama - MG</t>
+  </si>
+  <si>
+    <t>Alagoinhas - BA</t>
+  </si>
+  <si>
+    <t>Ponte Nova - MG</t>
   </si>
   <si>
     <t>PR</t>
@@ -1136,9 +1418,18 @@
     <t>ES</t>
   </si>
   <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>CONAM</t>
   </si>
   <si>
+    <t>IPM</t>
+  </si>
+  <si>
     <t>BLUMENAU_SC</t>
   </si>
   <si>
@@ -1190,15 +1481,15 @@
     <t>SYSTEMPRO</t>
   </si>
   <si>
-    <t>IPM</t>
-  </si>
-  <si>
     <t>TIPLAN</t>
   </si>
   <si>
     <t>CARIOCA</t>
   </si>
   <si>
+    <t>GOIANIA</t>
+  </si>
+  <si>
     <t>SMARAPD</t>
   </si>
   <si>
@@ -1211,9 +1502,6 @@
     <t>FINTEL</t>
   </si>
   <si>
-    <t>ISSWEB</t>
-  </si>
-  <si>
     <t>SIMPLISS</t>
   </si>
   <si>
@@ -1236,6 +1524,33 @@
   </si>
   <si>
     <t>VVISS</t>
+  </si>
+  <si>
+    <t>FISSLEX</t>
+  </si>
+  <si>
+    <t>ELOTECH</t>
+  </si>
+  <si>
+    <t>MGM</t>
+  </si>
+  <si>
+    <t>NATALENSE</t>
+  </si>
+  <si>
+    <t>ABRASF</t>
+  </si>
+  <si>
+    <t>CONSIST</t>
+  </si>
+  <si>
+    <t>NOTAINTELIGENTE</t>
+  </si>
+  <si>
+    <t>FREIRE_INFORMATICA</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
   </si>
 </sst>
 </file>
@@ -1311,9 +1626,11 @@
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarLoteRps" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CancelarNfse" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarURLNfse" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarNFSePDF" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarNFSePNG" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="InutilizarNFSe" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarNFSePDF" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ObterNotaFiscal" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="LMCAutorizacao" form="unqualified"/>
                       </xsd:all>
                     </xsd:complexType>
                   </xsd:element>
@@ -1327,9 +1644,11 @@
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarLoteRps" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CancelarNfse" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarURLNfse" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarNFSePDF" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarNFSePNG" form="unqualified"/>
                         <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="InutilizarNFSe" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ConsultarNFSePDF" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ObterNotaFiscal" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="LMCAutorizacao" form="unqualified"/>
                       </xsd:all>
                     </xsd:complexType>
                   </xsd:element>
@@ -1352,11 +1671,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D173" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:D173"/>
-  <sortState ref="A2:D173">
-    <sortCondition ref="B1:B173"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D220" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:D220"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/Webservice/Estado/@ID" xmlDataType="string"/>
@@ -1638,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1965,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,27 +1984,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1696,55 +2012,55 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>362</v>
+        <v>445</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>374</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1752,83 +2068,83 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>382</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>384</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>446</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -1836,41 +2152,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>376</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -1878,13 +2194,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
@@ -1892,139 +2208,139 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>370</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>371</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>384</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>377</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>384</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>387</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>351</v>
+        <v>449</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -2032,97 +2348,97 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>334</v>
+        <v>251</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>373</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>335</v>
+        <v>253</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>350</v>
+        <v>451</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>360</v>
+        <v>445</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>357</v>
+        <v>452</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
@@ -2130,27 +2446,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>374</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
@@ -2158,27 +2474,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>377</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>4</v>
@@ -2186,69 +2502,69 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>353</v>
+        <v>453</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>382</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
@@ -2256,1231 +2572,1231 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>363</v>
+        <v>446</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>374</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>397</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>353</v>
+        <v>454</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>399</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>350</v>
+        <v>454</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>400</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>386</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>377</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>361</v>
+        <v>452</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>354</v>
+        <v>452</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>371</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>353</v>
+        <v>454</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>383</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>358</v>
+        <v>455</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>4</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>350</v>
+        <v>456</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>360</v>
+        <v>457</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>5</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>378</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>5</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>4</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>362</v>
+        <v>452</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>374</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>4</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>5</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>4</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>4</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>383</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>5</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>4</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>371</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>400</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>391</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>379</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>351</v>
+        <v>446</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>388</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>4</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>4</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>352</v>
+        <v>456</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>391</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>216</v>
+        <v>320</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>350</v>
+        <v>445</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>217</v>
+        <v>323</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>352</v>
+        <v>459</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>4</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>371</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>351</v>
+        <v>460</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>379</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>378</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>358</v>
+        <v>453</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>374</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>4</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>202</v>
+        <v>331</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>350</v>
+        <v>454</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>382</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>5</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>359</v>
+        <v>447</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>4</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>377</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>371</v>
+        <v>482</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>4</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>375</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>395</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>393</v>
+        <v>488</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>385</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>381</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>400</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>382</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>221</v>
+        <v>351</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>352</v>
+        <v>457</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>351</v>
+        <v>446</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>388</v>
+        <v>479</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>353</v>
+        <v>455</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>4</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>4</v>
@@ -3488,251 +3804,251 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>400</v>
+        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>4</v>
+        <v>495</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>351</v>
+        <v>454</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>389</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>361</v>
+        <v>454</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>371</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>396</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>374</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>4</v>
+        <v>496</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>350</v>
+        <v>454</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>223</v>
+        <v>364</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>4</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>224</v>
+        <v>366</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>352</v>
+        <v>456</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>4</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>300</v>
+        <v>368</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>351</v>
+        <v>444</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>391</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>360</v>
+        <v>462</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>382</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>352</v>
+        <v>462</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>4</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>4</v>
@@ -3740,265 +4056,265 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>237</v>
+        <v>373</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>371</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>284</v>
+        <v>374</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>384</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>380</v>
+        <v>496</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>377</v>
+        <v>496</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>282</v>
+        <v>378</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>390</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>398</v>
+        <v>496</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>267</v>
+        <v>380</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>384</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>235</v>
+        <v>381</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>371</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>392</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>196</v>
+        <v>383</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>4</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>286</v>
+        <v>384</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>367</v>
+        <v>444</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>384</v>
+        <v>496</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>255</v>
+        <v>387</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>378</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>378</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>225</v>
+        <v>389</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>4</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>384</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>183</v>
+        <v>391</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>4</v>
@@ -4006,72 +4322,730 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>256</v>
+        <v>392</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>358</v>
+        <v>457</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>206</v>
+        <v>393</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>369</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>402</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>402</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>4</v>
+      <c r="B193" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
